--- a/data_year/zb/对外经济贸易/按主要国别(地区)分对外直接投资/对外直接投资流量.xlsx
+++ b/data_year/zb/对外经济贸易/按主要国别(地区)分对外直接投资/对外直接投资流量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1463 +603,1249 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2650609</v>
+        <v>6881131</v>
       </c>
       <c r="C2" t="n">
-        <v>4731</v>
+        <v>9604</v>
       </c>
       <c r="D2" t="n">
-        <v>1373235</v>
+        <v>3850521</v>
       </c>
       <c r="E2" t="n">
-        <v>1659315</v>
+        <v>4489046</v>
       </c>
       <c r="F2" t="n">
-        <v>47761</v>
+        <v>56772</v>
       </c>
       <c r="G2" t="n">
-        <v>1320</v>
+        <v>974</v>
       </c>
       <c r="H2" t="n">
-        <v>103257</v>
+        <v>114229</v>
       </c>
       <c r="I2" t="n">
-        <v>112571</v>
+        <v>262144</v>
       </c>
       <c r="J2" t="n">
-        <v>45441</v>
+        <v>41117</v>
       </c>
       <c r="K2" t="n">
-        <v>9909</v>
+        <v>20131</v>
       </c>
       <c r="L2" t="n">
-        <v>1716</v>
+        <v>2673</v>
       </c>
       <c r="M2" t="n">
-        <v>77008</v>
+        <v>188896</v>
       </c>
       <c r="N2" t="n">
-        <v>39035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3899</v>
-      </c>
+        <v>18489</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>260159</v>
+        <v>349613</v>
       </c>
       <c r="Q2" t="n">
-        <v>23866</v>
+        <v>41235</v>
       </c>
       <c r="R2" t="n">
-        <v>490241</v>
+        <v>1053827</v>
       </c>
       <c r="S2" t="n">
-        <v>39773</v>
+        <v>111850</v>
       </c>
       <c r="T2" t="n">
-        <v>-160</v>
+        <v>6375</v>
       </c>
       <c r="U2" t="n">
-        <v>3903</v>
+        <v>33799</v>
       </c>
       <c r="V2" t="n">
-        <v>154043</v>
+        <v>676019</v>
       </c>
       <c r="W2" t="n">
-        <v>962</v>
+        <v>2641</v>
       </c>
       <c r="X2" t="n">
-        <v>7641</v>
+        <v>69987</v>
       </c>
       <c r="Y2" t="n">
-        <v>53159</v>
+        <v>170170</v>
       </c>
       <c r="Z2" t="n">
-        <v>19573</v>
+        <v>130829</v>
       </c>
       <c r="AA2" t="n">
-        <v>6540</v>
+        <v>3096</v>
       </c>
       <c r="AB2" t="n">
-        <v>56654</v>
+        <v>33033</v>
       </c>
       <c r="AC2" t="n">
-        <v>187614</v>
+        <v>611976</v>
       </c>
       <c r="AD2" t="n">
-        <v>11088</v>
+        <v>30513</v>
       </c>
       <c r="AE2" t="n">
-        <v>14592</v>
+        <v>18600</v>
       </c>
       <c r="AF2" t="n">
-        <v>157431</v>
+        <v>211199</v>
       </c>
       <c r="AG2" t="n">
-        <v>5667</v>
+        <v>-72168</v>
       </c>
       <c r="AH2" t="n">
-        <v>1324</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5590717</v>
+        <v>7465404</v>
       </c>
       <c r="C3" t="n">
-        <v>64338</v>
+        <v>20288</v>
       </c>
       <c r="D3" t="n">
-        <v>3864030</v>
+        <v>3565484</v>
       </c>
       <c r="E3" t="n">
-        <v>4354750</v>
+        <v>4549445</v>
       </c>
       <c r="F3" t="n">
-        <v>39523</v>
+        <v>71581</v>
       </c>
       <c r="G3" t="n">
-        <v>832</v>
+        <v>2455</v>
       </c>
       <c r="H3" t="n">
-        <v>703</v>
+        <v>55407</v>
       </c>
       <c r="I3" t="n">
-        <v>36421</v>
+        <v>248132</v>
       </c>
       <c r="J3" t="n">
-        <v>480786</v>
+        <v>-1417</v>
       </c>
       <c r="K3" t="n">
-        <v>17398</v>
+        <v>59219</v>
       </c>
       <c r="L3" t="n">
-        <v>563</v>
+        <v>4154</v>
       </c>
       <c r="M3" t="n">
-        <v>195187</v>
+        <v>331823</v>
       </c>
       <c r="N3" t="n">
-        <v>16256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-5591</v>
-      </c>
+        <v>19742</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>152401</v>
+        <v>493646</v>
       </c>
       <c r="Q3" t="n">
-        <v>18341</v>
+        <v>51238</v>
       </c>
       <c r="R3" t="n">
-        <v>367725</v>
+        <v>1193582</v>
       </c>
       <c r="S3" t="n">
-        <v>155095</v>
+        <v>326896</v>
       </c>
       <c r="T3" t="n">
-        <v>646</v>
+        <v>2789</v>
       </c>
       <c r="U3" t="n">
-        <v>5862</v>
+        <v>14942</v>
       </c>
       <c r="V3" t="n">
-        <v>87579</v>
+        <v>825108</v>
       </c>
       <c r="W3" t="n">
-        <v>3105</v>
+        <v>348232</v>
       </c>
       <c r="X3" t="n">
-        <v>4547</v>
+        <v>23011</v>
       </c>
       <c r="Y3" t="n">
-        <v>189215</v>
+        <v>316529</v>
       </c>
       <c r="Z3" t="n">
-        <v>46203</v>
+        <v>181142</v>
       </c>
       <c r="AA3" t="n">
-        <v>-6314</v>
+        <v>91186</v>
       </c>
       <c r="AB3" t="n">
-        <v>1671</v>
+        <v>141970</v>
       </c>
       <c r="AC3" t="n">
-        <v>210433</v>
+        <v>620833</v>
       </c>
       <c r="AD3" t="n">
-        <v>11984</v>
+        <v>18919</v>
       </c>
       <c r="AE3" t="n">
-        <v>4225</v>
+        <v>11434</v>
       </c>
       <c r="AF3" t="n">
-        <v>549055</v>
+        <v>317314</v>
       </c>
       <c r="AG3" t="n">
-        <v>9691</v>
+        <v>34172</v>
       </c>
       <c r="AH3" t="n">
-        <v>6116</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5652899</v>
+        <v>8780353</v>
       </c>
       <c r="C4" t="n">
-        <v>45634</v>
+        <v>1660</v>
       </c>
       <c r="D4" t="n">
-        <v>3560057</v>
+        <v>5123844</v>
       </c>
       <c r="E4" t="n">
-        <v>4040759</v>
+        <v>6478494</v>
       </c>
       <c r="F4" t="n">
-        <v>34822</v>
+        <v>78462</v>
       </c>
       <c r="G4" t="n">
-        <v>2698</v>
+        <v>6444</v>
       </c>
       <c r="H4" t="n">
-        <v>61313</v>
+        <v>79516</v>
       </c>
       <c r="I4" t="n">
-        <v>152193</v>
+        <v>488200</v>
       </c>
       <c r="J4" t="n">
-        <v>4159</v>
+        <v>-81491</v>
       </c>
       <c r="K4" t="n">
-        <v>22609</v>
+        <v>136129</v>
       </c>
       <c r="L4" t="n">
-        <v>82</v>
+        <v>10042</v>
       </c>
       <c r="M4" t="n">
-        <v>247998</v>
+        <v>241510</v>
       </c>
       <c r="N4" t="n">
-        <v>17186</v>
-      </c>
-      <c r="O4" t="n">
-        <v>100</v>
-      </c>
+        <v>33305</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>536630</v>
+        <v>82743</v>
       </c>
       <c r="Q4" t="n">
-        <v>17921</v>
+        <v>79933</v>
       </c>
       <c r="R4" t="n">
-        <v>732790</v>
+        <v>616974</v>
       </c>
       <c r="S4" t="n">
-        <v>141425</v>
+        <v>151875</v>
       </c>
       <c r="T4" t="n">
-        <v>902</v>
+        <v>9406</v>
       </c>
       <c r="U4" t="n">
-        <v>8410</v>
+        <v>21065</v>
       </c>
       <c r="V4" t="n">
-        <v>335272</v>
+        <v>703509</v>
       </c>
       <c r="W4" t="n">
-        <v>4519</v>
+        <v>15393</v>
       </c>
       <c r="X4" t="n">
-        <v>4977</v>
+        <v>47860</v>
       </c>
       <c r="Y4" t="n">
-        <v>243643</v>
+        <v>217298</v>
       </c>
       <c r="Z4" t="n">
-        <v>90874</v>
+        <v>404785</v>
       </c>
       <c r="AA4" t="n">
-        <v>1930</v>
+        <v>-169</v>
       </c>
       <c r="AB4" t="n">
-        <v>19217</v>
+        <v>277473</v>
       </c>
       <c r="AC4" t="n">
-        <v>161205</v>
+        <v>223928</v>
       </c>
       <c r="AD4" t="n">
-        <v>11239</v>
+        <v>34943</v>
       </c>
       <c r="AE4" t="n">
-        <v>22876</v>
+        <v>24588</v>
       </c>
       <c r="AF4" t="n">
-        <v>143887</v>
+        <v>251666</v>
       </c>
       <c r="AG4" t="n">
-        <v>26512</v>
+        <v>94240</v>
       </c>
       <c r="AH4" t="n">
-        <v>4256</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6881131</v>
+        <v>10784371</v>
       </c>
       <c r="C5" t="n">
-        <v>9604</v>
+        <v>39477</v>
       </c>
       <c r="D5" t="n">
-        <v>3850521</v>
+        <v>6282378</v>
       </c>
       <c r="E5" t="n">
-        <v>4489046</v>
+        <v>7560426</v>
       </c>
       <c r="F5" t="n">
-        <v>56772</v>
+        <v>102225</v>
       </c>
       <c r="G5" t="n">
-        <v>974</v>
+        <v>10013</v>
       </c>
       <c r="H5" t="n">
-        <v>114229</v>
+        <v>100865</v>
       </c>
       <c r="I5" t="n">
-        <v>262144</v>
+        <v>490101</v>
       </c>
       <c r="J5" t="n">
-        <v>41117</v>
+        <v>-8919</v>
       </c>
       <c r="K5" t="n">
-        <v>20131</v>
+        <v>156338</v>
       </c>
       <c r="L5" t="n">
-        <v>2673</v>
+        <v>4973</v>
       </c>
       <c r="M5" t="n">
-        <v>188896</v>
+        <v>366032</v>
       </c>
       <c r="N5" t="n">
-        <v>18489</v>
+        <v>20913</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>349613</v>
+        <v>925340</v>
       </c>
       <c r="Q5" t="n">
-        <v>41235</v>
+        <v>91081</v>
       </c>
       <c r="R5" t="n">
-        <v>1053827</v>
+        <v>1435895</v>
       </c>
       <c r="S5" t="n">
-        <v>111850</v>
+        <v>203267</v>
       </c>
       <c r="T5" t="n">
-        <v>6375</v>
+        <v>19040</v>
       </c>
       <c r="U5" t="n">
-        <v>33799</v>
+        <v>43405</v>
       </c>
       <c r="V5" t="n">
-        <v>676019</v>
+        <v>594853</v>
       </c>
       <c r="W5" t="n">
-        <v>2641</v>
+        <v>26044</v>
       </c>
       <c r="X5" t="n">
-        <v>69987</v>
+        <v>75519</v>
       </c>
       <c r="Y5" t="n">
-        <v>170170</v>
+        <v>345798</v>
       </c>
       <c r="Z5" t="n">
-        <v>130829</v>
+        <v>387343</v>
       </c>
       <c r="AA5" t="n">
-        <v>3096</v>
+        <v>14091</v>
       </c>
       <c r="AB5" t="n">
-        <v>33033</v>
+        <v>141958</v>
       </c>
       <c r="AC5" t="n">
-        <v>611976</v>
+        <v>322156</v>
       </c>
       <c r="AD5" t="n">
-        <v>30513</v>
+        <v>48050</v>
       </c>
       <c r="AE5" t="n">
-        <v>18600</v>
+        <v>19130</v>
       </c>
       <c r="AF5" t="n">
-        <v>211199</v>
+        <v>337064</v>
       </c>
       <c r="AG5" t="n">
-        <v>-72168</v>
+        <v>26875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3358</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7465404</v>
+        <v>12311986</v>
       </c>
       <c r="C6" t="n">
-        <v>20288</v>
+        <v>59610</v>
       </c>
       <c r="D6" t="n">
-        <v>3565484</v>
+        <v>7086730</v>
       </c>
       <c r="E6" t="n">
-        <v>4549445</v>
+        <v>8498803</v>
       </c>
       <c r="F6" t="n">
-        <v>71581</v>
+        <v>63356</v>
       </c>
       <c r="G6" t="n">
-        <v>2455</v>
+        <v>6770</v>
       </c>
       <c r="H6" t="n">
-        <v>55407</v>
+        <v>90384</v>
       </c>
       <c r="I6" t="n">
-        <v>248132</v>
+        <v>920766</v>
       </c>
       <c r="J6" t="n">
-        <v>-1417</v>
+        <v>4209</v>
       </c>
       <c r="K6" t="n">
-        <v>59219</v>
+        <v>127198</v>
       </c>
       <c r="L6" t="n">
-        <v>4154</v>
+        <v>14057</v>
       </c>
       <c r="M6" t="n">
-        <v>331823</v>
+        <v>433695</v>
       </c>
       <c r="N6" t="n">
-        <v>19742</v>
+        <v>19977</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>493646</v>
+        <v>419172</v>
       </c>
       <c r="Q6" t="n">
-        <v>51238</v>
+        <v>143892</v>
       </c>
       <c r="R6" t="n">
-        <v>1193582</v>
+        <v>1054739</v>
       </c>
       <c r="S6" t="n">
-        <v>326896</v>
+        <v>281363</v>
       </c>
       <c r="T6" t="n">
-        <v>2789</v>
+        <v>25002</v>
       </c>
       <c r="U6" t="n">
-        <v>14942</v>
+        <v>39445</v>
       </c>
       <c r="V6" t="n">
-        <v>825108</v>
+        <v>1083791</v>
       </c>
       <c r="W6" t="n">
-        <v>348232</v>
+        <v>40554</v>
       </c>
       <c r="X6" t="n">
-        <v>23011</v>
+        <v>83946</v>
       </c>
       <c r="Y6" t="n">
-        <v>316529</v>
+        <v>404911</v>
       </c>
       <c r="Z6" t="n">
-        <v>181142</v>
+        <v>759613</v>
       </c>
       <c r="AA6" t="n">
-        <v>91186</v>
+        <v>17407</v>
       </c>
       <c r="AB6" t="n">
-        <v>141970</v>
+        <v>149890</v>
       </c>
       <c r="AC6" t="n">
-        <v>620833</v>
+        <v>457043</v>
       </c>
       <c r="AD6" t="n">
-        <v>18919</v>
+        <v>33289</v>
       </c>
       <c r="AE6" t="n">
-        <v>11434</v>
+        <v>66571</v>
       </c>
       <c r="AF6" t="n">
-        <v>317314</v>
+        <v>320192</v>
       </c>
       <c r="AG6" t="n">
-        <v>34172</v>
+        <v>54887</v>
       </c>
       <c r="AH6" t="n">
-        <v>2310</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8780353</v>
+        <v>14566715.104538</v>
       </c>
       <c r="C7" t="n">
-        <v>1660</v>
+        <v>108065</v>
       </c>
       <c r="D7" t="n">
-        <v>5123844</v>
+        <v>8978978</v>
       </c>
       <c r="E7" t="n">
-        <v>6478494</v>
+        <v>10837087</v>
       </c>
       <c r="F7" t="n">
-        <v>78462</v>
+        <v>296085.709871</v>
       </c>
       <c r="G7" t="n">
-        <v>6444</v>
+        <v>-2572</v>
       </c>
       <c r="H7" t="n">
-        <v>79516</v>
+        <v>156282.743505</v>
       </c>
       <c r="I7" t="n">
-        <v>488200</v>
+        <v>1071848</v>
       </c>
       <c r="J7" t="n">
-        <v>-81491</v>
+        <v>23317.086536</v>
       </c>
       <c r="K7" t="n">
-        <v>136129</v>
+        <v>145057</v>
       </c>
       <c r="L7" t="n">
-        <v>10042</v>
+        <v>-627.6206</v>
       </c>
       <c r="M7" t="n">
-        <v>241510</v>
+        <v>387109.169135</v>
       </c>
       <c r="N7" t="n">
-        <v>33305</v>
+        <v>5058</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>82743</v>
+        <v>1021303</v>
       </c>
       <c r="Q7" t="n">
-        <v>79933</v>
+        <v>40963.482986</v>
       </c>
       <c r="R7" t="n">
-        <v>616974</v>
+        <v>1261036</v>
       </c>
       <c r="S7" t="n">
-        <v>151875</v>
+        <v>1045248</v>
       </c>
       <c r="T7" t="n">
-        <v>9406</v>
+        <v>34809.233804</v>
       </c>
       <c r="U7" t="n">
-        <v>21065</v>
+        <v>24042</v>
       </c>
       <c r="V7" t="n">
-        <v>703509</v>
+        <v>711843</v>
       </c>
       <c r="W7" t="n">
-        <v>15393</v>
+        <v>32788.453079</v>
       </c>
       <c r="X7" t="n">
-        <v>47860</v>
+        <v>40724</v>
       </c>
       <c r="Y7" t="n">
-        <v>217298</v>
+        <v>340131.163331</v>
       </c>
       <c r="Z7" t="n">
-        <v>404785</v>
+        <v>802867.248728</v>
       </c>
       <c r="AA7" t="n">
-        <v>-169</v>
+        <v>3171</v>
       </c>
       <c r="AB7" t="n">
-        <v>277473</v>
+        <v>184816.272444</v>
       </c>
       <c r="AC7" t="n">
-        <v>223928</v>
+        <v>184899.844052</v>
       </c>
       <c r="AD7" t="n">
-        <v>34943</v>
+        <v>56017</v>
       </c>
       <c r="AE7" t="n">
-        <v>24588</v>
+        <v>21057</v>
       </c>
       <c r="AF7" t="n">
-        <v>251666</v>
+        <v>297792</v>
       </c>
       <c r="AG7" t="n">
-        <v>94240</v>
+        <v>132455</v>
       </c>
       <c r="AH7" t="n">
-        <v>843</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10784371</v>
+        <v>19614943</v>
       </c>
       <c r="C8" t="n">
-        <v>39477</v>
+        <v>82150</v>
       </c>
       <c r="D8" t="n">
-        <v>6282378</v>
+        <v>11423259</v>
       </c>
       <c r="E8" t="n">
-        <v>7560426</v>
+        <v>13026769</v>
       </c>
       <c r="F8" t="n">
-        <v>102225</v>
+        <v>129307</v>
       </c>
       <c r="G8" t="n">
-        <v>10013</v>
+        <v>3667</v>
       </c>
       <c r="H8" t="n">
-        <v>100865</v>
+        <v>287150</v>
       </c>
       <c r="I8" t="n">
-        <v>490101</v>
+        <v>2035096</v>
       </c>
       <c r="J8" t="n">
-        <v>-8919</v>
+        <v>84322</v>
       </c>
       <c r="K8" t="n">
-        <v>156338</v>
+        <v>146088</v>
       </c>
       <c r="L8" t="n">
-        <v>4973</v>
+        <v>21184</v>
       </c>
       <c r="M8" t="n">
-        <v>366032</v>
+        <v>521177</v>
       </c>
       <c r="N8" t="n">
-        <v>20913</v>
+        <v>10850</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>925340</v>
+        <v>1352283</v>
       </c>
       <c r="Q8" t="n">
-        <v>91081</v>
+        <v>238058</v>
       </c>
       <c r="R8" t="n">
-        <v>1435895</v>
+        <v>2722705</v>
       </c>
       <c r="S8" t="n">
-        <v>203267</v>
+        <v>317186</v>
       </c>
       <c r="T8" t="n">
-        <v>19040</v>
+        <v>90585</v>
       </c>
       <c r="U8" t="n">
-        <v>43405</v>
+        <v>34401</v>
       </c>
       <c r="V8" t="n">
-        <v>594853</v>
+        <v>1069323</v>
       </c>
       <c r="W8" t="n">
-        <v>26044</v>
+        <v>149957</v>
       </c>
       <c r="X8" t="n">
-        <v>75519</v>
+        <v>112169</v>
       </c>
       <c r="Y8" t="n">
-        <v>345798</v>
+        <v>418688</v>
       </c>
       <c r="Z8" t="n">
-        <v>387343</v>
+        <v>1698081</v>
       </c>
       <c r="AA8" t="n">
-        <v>14091</v>
+        <v>-68994</v>
       </c>
       <c r="AB8" t="n">
-        <v>141958</v>
+        <v>148039</v>
       </c>
       <c r="AC8" t="n">
-        <v>322156</v>
+        <v>1228849</v>
       </c>
       <c r="AD8" t="n">
-        <v>48050</v>
+        <v>127904</v>
       </c>
       <c r="AE8" t="n">
-        <v>19130</v>
+        <v>-9989</v>
       </c>
       <c r="AF8" t="n">
-        <v>337064</v>
+        <v>239873</v>
       </c>
       <c r="AG8" t="n">
-        <v>26875</v>
+        <v>114837</v>
       </c>
       <c r="AH8" t="n">
-        <v>1551</v>
+        <v>-655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12311986</v>
+        <v>15828830</v>
       </c>
       <c r="C9" t="n">
-        <v>59610</v>
+        <v>-102446.52</v>
       </c>
       <c r="D9" t="n">
-        <v>7086730</v>
+        <v>9115278.49</v>
       </c>
       <c r="E9" t="n">
-        <v>8498803</v>
+        <v>11003986</v>
       </c>
       <c r="F9" t="n">
-        <v>63356</v>
+        <v>154841.79</v>
       </c>
       <c r="G9" t="n">
-        <v>6770</v>
+        <v>622.95</v>
       </c>
       <c r="H9" t="n">
-        <v>90384</v>
+        <v>32083.3</v>
       </c>
       <c r="I9" t="n">
-        <v>920766</v>
+        <v>649827</v>
       </c>
       <c r="J9" t="n">
-        <v>4209</v>
+        <v>31735.91</v>
       </c>
       <c r="K9" t="n">
-        <v>127198</v>
+        <v>168224.53</v>
       </c>
       <c r="L9" t="n">
-        <v>14057</v>
+        <v>17133.07</v>
       </c>
       <c r="M9" t="n">
-        <v>433695</v>
+        <v>510539</v>
       </c>
       <c r="N9" t="n">
-        <v>19977</v>
+        <v>13795.45</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>419172</v>
+        <v>-660595.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>143892</v>
+        <v>271584.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1054739</v>
+        <v>1407659</v>
       </c>
       <c r="S9" t="n">
-        <v>281363</v>
+        <v>631990.23</v>
       </c>
       <c r="T9" t="n">
-        <v>25002</v>
+        <v>59661.07</v>
       </c>
       <c r="U9" t="n">
-        <v>39445</v>
+        <v>44404.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1083791</v>
+        <v>1846319</v>
       </c>
       <c r="W9" t="n">
-        <v>40554</v>
+        <v>95215.28999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>83946</v>
+        <v>105758.85</v>
       </c>
       <c r="Y9" t="n">
-        <v>404911</v>
+        <v>424195.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>759613</v>
+        <v>642549.28</v>
       </c>
       <c r="AA9" t="n">
-        <v>17407</v>
+        <v>25487.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>149890</v>
+        <v>206629.71</v>
       </c>
       <c r="AC9" t="n">
-        <v>457043</v>
+        <v>1930117.49</v>
       </c>
       <c r="AD9" t="n">
-        <v>33289</v>
+        <v>76440.00999999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>66571</v>
+        <v>-14053.49</v>
       </c>
       <c r="AF9" t="n">
-        <v>320192</v>
+        <v>410500</v>
       </c>
       <c r="AG9" t="n">
-        <v>54887</v>
+        <v>66079.89</v>
       </c>
       <c r="AH9" t="n">
-        <v>3676</v>
+        <v>7119.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14566715.104538</v>
+        <v>14303730.505705</v>
       </c>
       <c r="C10" t="n">
-        <v>108065</v>
+        <v>81067.328781</v>
       </c>
       <c r="D10" t="n">
-        <v>8978978</v>
+        <v>8686917.436648</v>
       </c>
       <c r="E10" t="n">
-        <v>10837087</v>
+        <v>10550488.07104</v>
       </c>
       <c r="F10" t="n">
-        <v>296085.709871</v>
+        <v>72524.05155400001</v>
       </c>
       <c r="G10" t="n">
-        <v>-2572</v>
+        <v>20316.55</v>
       </c>
       <c r="H10" t="n">
-        <v>156282.743505</v>
+        <v>156350.191218</v>
       </c>
       <c r="I10" t="n">
-        <v>1071848</v>
+        <v>872383.413301</v>
       </c>
       <c r="J10" t="n">
-        <v>23317.086536</v>
+        <v>64205.934763</v>
       </c>
       <c r="K10" t="n">
-        <v>145057</v>
+        <v>186482.295845</v>
       </c>
       <c r="L10" t="n">
-        <v>-627.6206</v>
+        <v>37845.041035</v>
       </c>
       <c r="M10" t="n">
-        <v>387109.169135</v>
+        <v>222263.179756</v>
       </c>
       <c r="N10" t="n">
-        <v>5058</v>
+        <v>19469.75</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>1021303</v>
+        <v>547312.075162</v>
       </c>
       <c r="Q10" t="n">
-        <v>40963.482986</v>
+        <v>146799.153074</v>
       </c>
       <c r="R10" t="n">
-        <v>1261036</v>
+        <v>1460846.73767</v>
       </c>
       <c r="S10" t="n">
-        <v>1045248</v>
+        <v>641125.705065</v>
       </c>
       <c r="T10" t="n">
-        <v>34809.233804</v>
+        <v>25745.60137</v>
       </c>
       <c r="U10" t="n">
-        <v>24042</v>
+        <v>46840.716158</v>
       </c>
       <c r="V10" t="n">
-        <v>711843</v>
+        <v>658838.518117</v>
       </c>
       <c r="W10" t="n">
-        <v>32788.453079</v>
+        <v>-7502.415346</v>
       </c>
       <c r="X10" t="n">
-        <v>40724</v>
+        <v>73728.83455</v>
       </c>
       <c r="Y10" t="n">
-        <v>340131.163331</v>
+        <v>198597.488386</v>
       </c>
       <c r="Z10" t="n">
-        <v>802867.248728</v>
+        <v>747716.578914</v>
       </c>
       <c r="AA10" t="n">
-        <v>3171</v>
+        <v>5712.17</v>
       </c>
       <c r="AB10" t="n">
-        <v>184816.272444</v>
+        <v>102663.661752</v>
       </c>
       <c r="AC10" t="n">
-        <v>184899.844052</v>
+        <v>714978.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>56017</v>
+        <v>115083.146262</v>
       </c>
       <c r="AE10" t="n">
-        <v>21057</v>
+        <v>17864.93</v>
       </c>
       <c r="AF10" t="n">
-        <v>297792</v>
+        <v>538910.585821</v>
       </c>
       <c r="AG10" t="n">
-        <v>132455</v>
+        <v>103366.128133</v>
       </c>
       <c r="AH10" t="n">
-        <v>3384</v>
+        <v>5559.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19614943</v>
+        <v>13690756</v>
       </c>
       <c r="C11" t="n">
-        <v>82150</v>
+        <v>59444.925398</v>
       </c>
       <c r="D11" t="n">
-        <v>11423259</v>
+        <v>9055007.748050001</v>
       </c>
       <c r="E11" t="n">
-        <v>13026769</v>
+        <v>11084094</v>
       </c>
       <c r="F11" t="n">
-        <v>129307</v>
+        <v>-37922.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3667</v>
+        <v>5303.68</v>
       </c>
       <c r="H11" t="n">
-        <v>287150</v>
+        <v>47288.333878</v>
       </c>
       <c r="I11" t="n">
-        <v>2035096</v>
+        <v>436713</v>
       </c>
       <c r="J11" t="n">
-        <v>84322</v>
+        <v>33891.430055</v>
       </c>
       <c r="K11" t="n">
-        <v>146088</v>
+        <v>222308.453746</v>
       </c>
       <c r="L11" t="n">
-        <v>21184</v>
+        <v>16356.382008</v>
       </c>
       <c r="M11" t="n">
-        <v>521177</v>
+        <v>208108</v>
       </c>
       <c r="N11" t="n">
-        <v>10850</v>
+        <v>12326.85</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>1352283</v>
+        <v>-435668.113957</v>
       </c>
       <c r="Q11" t="n">
-        <v>238058</v>
+        <v>145901.2</v>
       </c>
       <c r="R11" t="n">
-        <v>2722705</v>
+        <v>639407</v>
       </c>
       <c r="S11" t="n">
-        <v>317186</v>
+        <v>482567.341184</v>
       </c>
       <c r="T11" t="n">
-        <v>90585</v>
+        <v>1140.154242</v>
       </c>
       <c r="U11" t="n">
-        <v>34401</v>
+        <v>67378.401229</v>
       </c>
       <c r="V11" t="n">
-        <v>1069323</v>
+        <v>1051992</v>
       </c>
       <c r="W11" t="n">
-        <v>149957</v>
+        <v>8722.097393</v>
       </c>
       <c r="X11" t="n">
-        <v>112169</v>
+        <v>137190.649533</v>
       </c>
       <c r="Y11" t="n">
-        <v>418688</v>
+        <v>208666.949847</v>
       </c>
       <c r="Z11" t="n">
-        <v>1698081</v>
+        <v>380668.482327</v>
       </c>
       <c r="AA11" t="n">
-        <v>-68994</v>
+        <v>-7077.79</v>
       </c>
       <c r="AB11" t="n">
-        <v>148039</v>
+        <v>110345.251894</v>
       </c>
       <c r="AC11" t="n">
-        <v>1228849</v>
+        <v>868257.33</v>
       </c>
       <c r="AD11" t="n">
-        <v>127904</v>
+        <v>164851.509237</v>
       </c>
       <c r="AE11" t="n">
-        <v>-9989</v>
+        <v>-12361.99</v>
       </c>
       <c r="AF11" t="n">
-        <v>239873</v>
+        <v>270442</v>
       </c>
       <c r="AG11" t="n">
-        <v>114837</v>
+        <v>56179.591021</v>
       </c>
       <c r="AH11" t="n">
-        <v>-655</v>
+        <v>-16.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15828830</v>
+        <v>15371026</v>
       </c>
       <c r="C12" t="n">
-        <v>-102446.52</v>
+        <v>82684</v>
       </c>
       <c r="D12" t="n">
-        <v>9115278.49</v>
+        <v>8914586</v>
       </c>
       <c r="E12" t="n">
-        <v>11003986</v>
+        <v>11234365</v>
       </c>
       <c r="F12" t="n">
-        <v>154841.79</v>
+        <v>57032</v>
       </c>
       <c r="G12" t="n">
-        <v>622.95</v>
+        <v>-29512</v>
       </c>
       <c r="H12" t="n">
-        <v>32083.3</v>
+        <v>21002</v>
       </c>
       <c r="I12" t="n">
-        <v>649827</v>
+        <v>634312</v>
       </c>
       <c r="J12" t="n">
-        <v>31735.91</v>
+        <v>40043</v>
       </c>
       <c r="K12" t="n">
-        <v>168224.53</v>
+        <v>219835</v>
       </c>
       <c r="L12" t="n">
-        <v>17133.07</v>
+        <v>26456</v>
       </c>
       <c r="M12" t="n">
-        <v>510539</v>
+        <v>144573</v>
       </c>
       <c r="N12" t="n">
-        <v>13795.45</v>
+        <v>30894</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-660595.65</v>
+        <v>856222</v>
       </c>
       <c r="Q12" t="n">
-        <v>271584.62</v>
+        <v>137560</v>
       </c>
       <c r="R12" t="n">
-        <v>1407659</v>
+        <v>1665651</v>
       </c>
       <c r="S12" t="n">
-        <v>631990.23</v>
+        <v>592335</v>
       </c>
       <c r="T12" t="n">
-        <v>59661.07</v>
+        <v>45292</v>
       </c>
       <c r="U12" t="n">
-        <v>44404.92</v>
+        <v>48683</v>
       </c>
       <c r="V12" t="n">
-        <v>1846319</v>
+        <v>1269565</v>
       </c>
       <c r="W12" t="n">
-        <v>95215.28999999999</v>
+        <v>14779</v>
       </c>
       <c r="X12" t="n">
-        <v>105758.85</v>
+        <v>188288</v>
       </c>
       <c r="Y12" t="n">
-        <v>424195.9</v>
+        <v>119859</v>
       </c>
       <c r="Z12" t="n">
-        <v>642549.28</v>
+        <v>601867</v>
       </c>
       <c r="AA12" t="n">
-        <v>25487.4</v>
+        <v>283</v>
       </c>
       <c r="AB12" t="n">
-        <v>206629.71</v>
+        <v>92222</v>
       </c>
       <c r="AC12" t="n">
-        <v>1930117.49</v>
+        <v>697562</v>
       </c>
       <c r="AD12" t="n">
-        <v>76440.00999999999</v>
+        <v>187575</v>
       </c>
       <c r="AE12" t="n">
-        <v>-14053.49</v>
+        <v>1864</v>
       </c>
       <c r="AF12" t="n">
-        <v>410500</v>
+        <v>422560</v>
       </c>
       <c r="AG12" t="n">
-        <v>66079.89</v>
+        <v>13914</v>
       </c>
       <c r="AH12" t="n">
-        <v>7119.93</v>
+        <v>13598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14303730.505705</v>
+        <v>17881932</v>
       </c>
       <c r="C13" t="n">
-        <v>81067.328781</v>
+        <v>88192</v>
       </c>
       <c r="D13" t="n">
-        <v>8686917.436648</v>
+        <v>10119088</v>
       </c>
       <c r="E13" t="n">
-        <v>10550488.07104</v>
+        <v>12810205</v>
       </c>
       <c r="F13" t="n">
-        <v>72524.05155400001</v>
+        <v>-107230</v>
       </c>
       <c r="G13" t="n">
-        <v>20316.55</v>
+        <v>48717</v>
       </c>
       <c r="H13" t="n">
-        <v>156350.191218</v>
+        <v>93017</v>
       </c>
       <c r="I13" t="n">
-        <v>872383.413301</v>
+        <v>658090</v>
       </c>
       <c r="J13" t="n">
-        <v>64205.934763</v>
+        <v>36359</v>
       </c>
       <c r="K13" t="n">
-        <v>186482.295845</v>
+        <v>437251</v>
       </c>
       <c r="L13" t="n">
-        <v>37845.041035</v>
+        <v>23183</v>
       </c>
       <c r="M13" t="n">
-        <v>222263.179756</v>
+        <v>211642</v>
       </c>
       <c r="N13" t="n">
-        <v>19469.75</v>
+        <v>20167</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>547312.075162</v>
+        <v>1075356</v>
       </c>
       <c r="Q13" t="n">
-        <v>146799.153074</v>
+        <v>271113</v>
       </c>
       <c r="R13" t="n">
-        <v>1460846.73767</v>
+        <v>2615851</v>
       </c>
       <c r="S13" t="n">
-        <v>641125.705065</v>
+        <v>840504</v>
       </c>
       <c r="T13" t="n">
-        <v>25745.60137</v>
+        <v>22461</v>
       </c>
       <c r="U13" t="n">
-        <v>46840.716158</v>
+        <v>76214</v>
       </c>
       <c r="V13" t="n">
-        <v>658838.518117</v>
+        <v>1087480</v>
       </c>
       <c r="W13" t="n">
-        <v>-7502.415346</v>
+        <v>-15167</v>
       </c>
       <c r="X13" t="n">
-        <v>73728.83455</v>
+        <v>148601</v>
       </c>
       <c r="Y13" t="n">
-        <v>198597.488386</v>
+        <v>192254</v>
       </c>
       <c r="Z13" t="n">
-        <v>747716.578914</v>
+        <v>558435</v>
       </c>
       <c r="AA13" t="n">
-        <v>5712.17</v>
+        <v>9429</v>
       </c>
       <c r="AB13" t="n">
-        <v>102663.661752</v>
+        <v>190355</v>
       </c>
       <c r="AC13" t="n">
-        <v>714978.3</v>
+        <v>1397101</v>
       </c>
       <c r="AD13" t="n">
-        <v>115083.146262</v>
+        <v>220762</v>
       </c>
       <c r="AE13" t="n">
-        <v>17864.93</v>
+        <v>18471</v>
       </c>
       <c r="AF13" t="n">
-        <v>538910.585821</v>
+        <v>498664</v>
       </c>
       <c r="AG13" t="n">
-        <v>103366.128133</v>
+        <v>47804</v>
       </c>
       <c r="AH13" t="n">
-        <v>5559.92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13690756</v>
-      </c>
-      <c r="C14" t="n">
-        <v>59444.925398</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9055007.748050001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11084094</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-37922.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5303.68</v>
-      </c>
-      <c r="H14" t="n">
-        <v>47288.333878</v>
-      </c>
-      <c r="I14" t="n">
-        <v>436713</v>
-      </c>
-      <c r="J14" t="n">
-        <v>33891.430055</v>
-      </c>
-      <c r="K14" t="n">
-        <v>222308.453746</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16356.382008</v>
-      </c>
-      <c r="M14" t="n">
-        <v>208108</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12326.85</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>-435668.113957</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>145901.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>639407</v>
-      </c>
-      <c r="S14" t="n">
-        <v>482567.341184</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1140.154242</v>
-      </c>
-      <c r="U14" t="n">
-        <v>67378.401229</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1051992</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8722.097393</v>
-      </c>
-      <c r="X14" t="n">
-        <v>137190.649533</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>208666.949847</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>380668.482327</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>-7077.79</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>110345.251894</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>868257.33</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>164851.509237</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>-12361.99</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>270442</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>56179.591021</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>-16.11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15371025.994166</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82684.352855</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8914586.122064</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11234365.311025</v>
-      </c>
-      <c r="F15" t="n">
-        <v>57032.428119</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-29512.01</v>
-      </c>
-      <c r="H15" t="n">
-        <v>21002.075467</v>
-      </c>
-      <c r="I15" t="n">
-        <v>634312.23026</v>
-      </c>
-      <c r="J15" t="n">
-        <v>40043.320465</v>
-      </c>
-      <c r="K15" t="n">
-        <v>219835.305309</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26455.699453</v>
-      </c>
-      <c r="M15" t="n">
-        <v>144572.531246</v>
-      </c>
-      <c r="N15" t="n">
-        <v>30893.5</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>856221.650951</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>137559.525813</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1665650.563995</v>
-      </c>
-      <c r="S15" t="n">
-        <v>592335.015813</v>
-      </c>
-      <c r="T15" t="n">
-        <v>45291.921509</v>
-      </c>
-      <c r="U15" t="n">
-        <v>48682.869012</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1269564.87766</v>
-      </c>
-      <c r="W15" t="n">
-        <v>14778.589335</v>
-      </c>
-      <c r="X15" t="n">
-        <v>188287.594939</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>119858.629737</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>601867.219243</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>282.95</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>92222.25851499999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>697561.65</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>187574.632394</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1864.42</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>422560.47998</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13914.353957</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>13597.65</v>
+        <v>-962</v>
       </c>
     </row>
   </sheetData>
